--- a/variaciones.xlsx
+++ b/variaciones.xlsx
@@ -532,7 +532,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -547,6 +547,8 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -869,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,14 +984,14 @@
         <v>910.68</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F19" si="0">((E4-E3)/E3)*100</f>
+        <f t="shared" ref="F4:F20" si="0">((E4-E3)/E3)*100</f>
         <v>72.755382718391346</v>
       </c>
       <c r="G4">
         <v>4050</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H19" si="1">((G4-G3)/G3)*100</f>
+        <f t="shared" ref="H4:H20" si="1">((G4-G3)/G3)*100</f>
         <v>6.5789473684210522</v>
       </c>
     </row>
@@ -1410,7 +1412,9 @@
         <f>((B19-B18)/B18)*100</f>
         <v>81.446887956295043</v>
       </c>
-      <c r="D19"/>
+      <c r="D19">
+        <v>32</v>
+      </c>
       <c r="E19">
         <v>117395.02</v>
       </c>
@@ -1424,6 +1428,35 @@
       <c r="H19">
         <f t="shared" si="1"/>
         <v>61.111111111111114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>43953</v>
+      </c>
+      <c r="B20" s="8">
+        <v>289324.75</v>
+      </c>
+      <c r="C20">
+        <f>((B20-B19)/B19)*100</f>
+        <v>50.70200657167053</v>
+      </c>
+      <c r="D20" s="9">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>180000</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>53.328480202993276</v>
+      </c>
+      <c r="G20">
+        <v>9000</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>24.137931034482758</v>
       </c>
     </row>
   </sheetData>

--- a/variaciones.xlsx
+++ b/variaciones.xlsx
@@ -874,7 +874,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,7 +1442,7 @@
         <v>50.70200657167053</v>
       </c>
       <c r="D20" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E20">
         <v>180000</v>

--- a/variaciones.xlsx
+++ b/variaciones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\analista04\Documents\R\grupointeraval.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\25 APP GRUPO INTERAVAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,10 +49,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="mm\-yyyy"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="mm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -530,12 +531,12 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -545,10 +546,12 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -871,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,6 +1462,113 @@
         <v>24.137931034482758</v>
       </c>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>43984</v>
+      </c>
+      <c r="B21" s="3">
+        <v>330000</v>
+      </c>
+      <c r="C21">
+        <v>1.8</v>
+      </c>
+      <c r="D21" s="11">
+        <v>25.1</v>
+      </c>
+      <c r="E21">
+        <v>225000</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>9300</v>
+      </c>
+      <c r="H21">
+        <v>3.3333333000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>44015</v>
+      </c>
+      <c r="B22" s="3">
+        <v>320000</v>
+      </c>
+      <c r="C22">
+        <v>-1.8</v>
+      </c>
+      <c r="D22" s="10">
+        <v>55.05</v>
+      </c>
+      <c r="E22">
+        <v>240000</v>
+      </c>
+      <c r="F22">
+        <v>6.6666667000000004</v>
+      </c>
+      <c r="G22">
+        <v>9600</v>
+      </c>
+      <c r="H22">
+        <v>3.2258064000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>44046</v>
+      </c>
+      <c r="B23" s="3">
+        <v>490000</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10">
+        <v>25.04</v>
+      </c>
+      <c r="E23">
+        <v>335000</v>
+      </c>
+      <c r="F23">
+        <v>39.583333000000003</v>
+      </c>
+      <c r="G23">
+        <v>11700</v>
+      </c>
+      <c r="H23">
+        <v>21.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>44077</v>
+      </c>
+      <c r="B24" s="3">
+        <v>520000</v>
+      </c>
+      <c r="C24">
+        <v>0.02</v>
+      </c>
+      <c r="D24" s="10">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>400000</v>
+      </c>
+      <c r="F24">
+        <v>19.40298507</v>
+      </c>
+      <c r="G24">
+        <v>13400</v>
+      </c>
+      <c r="H24">
+        <v>14.5299145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/variaciones.xlsx
+++ b/variaciones.xlsx
@@ -49,11 +49,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="mm\-yyyy"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -533,25 +534,22 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -877,22 +875,24 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="11.42578125" style="9"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="11.42578125" style="6"/>
+    <col min="7" max="7" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -901,13 +901,13 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
@@ -915,10 +915,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>43405</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="9">
         <v>507.32</v>
       </c>
       <c r="C2">
@@ -927,13 +927,13 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>239.81</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>6400</v>
       </c>
       <c r="H2">
@@ -941,10 +941,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>43435</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="9">
         <v>822.09</v>
       </c>
       <c r="C3">
@@ -954,14 +954,14 @@
       <c r="D3">
         <v>141.75</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>527.15</v>
       </c>
       <c r="F3">
         <f>((E3-E2)/E2)*100</f>
         <v>119.81985738709811</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>3800</v>
       </c>
       <c r="H3">
@@ -970,10 +970,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>43466</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="9">
         <v>2367.5500000000002</v>
       </c>
       <c r="C4">
@@ -983,14 +983,14 @@
       <c r="D4">
         <v>196.6</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>910.68</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F20" si="0">((E4-E3)/E3)*100</f>
         <v>72.755382718391346</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>4050</v>
       </c>
       <c r="H4">
@@ -999,10 +999,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>43497</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="9">
         <v>5699.8</v>
       </c>
       <c r="C5">
@@ -1012,14 +1012,14 @@
       <c r="D5">
         <v>114.4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>2808.33</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>208.37725655554092</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>3650</v>
       </c>
       <c r="H5">
@@ -1028,10 +1028,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>43525</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="9">
         <v>9837.64</v>
       </c>
       <c r="C6">
@@ -1041,14 +1041,14 @@
       <c r="D6">
         <v>34.799999999999997</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>3673.74</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>30.815822926792784</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>3910</v>
       </c>
       <c r="H6">
@@ -1057,10 +1057,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>43556</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="9">
         <v>8683.9599999999991</v>
       </c>
       <c r="C7">
@@ -1070,14 +1070,14 @@
       <c r="D7">
         <v>33.799999999999997</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>3799.14</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>3.413415211746071</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>5235</v>
       </c>
       <c r="H7">
@@ -1086,10 +1086,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>43586</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="9">
         <v>15277.27</v>
       </c>
       <c r="C8">
@@ -1099,14 +1099,14 @@
       <c r="D8">
         <v>39.5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>5886.15</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>54.93374816405818</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>5850</v>
       </c>
       <c r="H8">
@@ -1115,10 +1115,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>43617</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="9">
         <v>13571.37</v>
       </c>
       <c r="C9">
@@ -1128,14 +1128,14 @@
       <c r="D9">
         <v>22.1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>6348.24</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>7.8504625264391867</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>7600</v>
       </c>
       <c r="H9">
@@ -1144,10 +1144,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>43647</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="9">
         <v>19516.099999999999</v>
       </c>
       <c r="C10">
@@ -1157,14 +1157,14 @@
       <c r="D10">
         <v>19.399999999999999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>7794.91</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>22.788520912882941</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>12950</v>
       </c>
       <c r="H10">
@@ -1173,10 +1173,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>43678</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="9">
         <v>40439.29</v>
       </c>
       <c r="C11">
@@ -1186,14 +1186,14 @@
       <c r="D11">
         <v>34.6</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>13807.52</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>77.135079173460639</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <v>11600</v>
       </c>
       <c r="H11">
@@ -1202,10 +1202,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>43709</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="9">
         <v>61085.03</v>
       </c>
       <c r="C12">
@@ -1215,14 +1215,14 @@
       <c r="D12">
         <v>52.2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>22036.01</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>59.594264574666546</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
         <v>10390</v>
       </c>
       <c r="H12">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="4">
         <v>43739</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="9">
         <v>52777.46</v>
       </c>
       <c r="C13">
@@ -1244,14 +1244,14 @@
       <c r="D13">
         <v>20.7</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>20015.740000000002</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>-9.1680390415506121</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <v>8200</v>
       </c>
       <c r="H13">
@@ -1260,10 +1260,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>43770</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="9">
         <v>57077.23</v>
       </c>
       <c r="C14">
@@ -1273,14 +1273,14 @@
       <c r="D14">
         <v>35.799999999999997</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>29032.22</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>45.046948051883163</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="6">
         <v>9240</v>
       </c>
       <c r="H14">
@@ -1289,10 +1289,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="4">
         <v>43800</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="9">
         <v>61917.54</v>
       </c>
       <c r="C15">
@@ -1302,14 +1302,14 @@
       <c r="D15">
         <v>33.1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>46838.19</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>61.331754857189701</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6">
         <v>7270</v>
       </c>
       <c r="H15">
@@ -1318,10 +1318,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="4">
         <v>43831</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="10">
         <v>123483.57</v>
       </c>
       <c r="C16">
@@ -1331,14 +1331,14 @@
       <c r="D16">
         <v>65</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>80721.919999999998</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>72.342099470538884</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="6">
         <v>8270</v>
       </c>
       <c r="H16">
@@ -1347,10 +1347,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="4">
         <v>43862</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="9">
         <v>123888.89</v>
       </c>
       <c r="C17">
@@ -1360,14 +1360,14 @@
       <c r="D17">
         <v>22</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>75272.11</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>-6.7513384220791544</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="6">
         <v>9780</v>
       </c>
       <c r="H17">
@@ -1376,10 +1376,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="4">
         <v>43891</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="9">
         <v>105807.64</v>
       </c>
       <c r="C18">
@@ -1389,14 +1389,14 @@
       <c r="D18">
         <v>21.2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>80023.179999999993</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>6.3118597313134863</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="6">
         <v>4500</v>
       </c>
       <c r="H18">
@@ -1405,10 +1405,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="4">
         <v>43922</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="9">
         <v>191984.67</v>
       </c>
       <c r="C19">
@@ -1418,14 +1418,14 @@
       <c r="D19">
         <v>32</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>117395.02</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>46.701268307507917</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="6">
         <v>7250</v>
       </c>
       <c r="H19">
@@ -1434,27 +1434,27 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="4">
         <v>43953</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="10">
         <v>289324.75</v>
       </c>
       <c r="C20">
         <f>((B20-B19)/B19)*100</f>
         <v>50.70200657167053</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="5">
         <v>80</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <v>180000</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>53.328480202993276</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="6">
         <v>9000</v>
       </c>
       <c r="H20">
@@ -1463,25 +1463,25 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="4">
         <v>43984</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="9">
         <v>330000</v>
       </c>
       <c r="C21">
-        <v>1.8</v>
-      </c>
-      <c r="D21" s="11">
+        <v>14.05868319</v>
+      </c>
+      <c r="D21" s="7">
         <v>25.1</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>225000</v>
       </c>
       <c r="F21">
         <v>25</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="6">
         <v>9300</v>
       </c>
       <c r="H21">
@@ -1489,25 +1489,25 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="4">
         <v>44015</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="9">
         <v>320000</v>
       </c>
       <c r="C22">
-        <v>-1.8</v>
-      </c>
-      <c r="D22" s="10">
+        <v>-3.0303030303030001</v>
+      </c>
+      <c r="D22" s="6">
         <v>55.05</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <v>240000</v>
       </c>
       <c r="F22">
         <v>6.6666667000000004</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="6">
         <v>9600</v>
       </c>
       <c r="H22">
@@ -1515,25 +1515,25 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="4">
         <v>44046</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="9">
         <v>490000</v>
       </c>
       <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" s="10">
+        <v>53.125</v>
+      </c>
+      <c r="D23" s="6">
         <v>25.04</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>335000</v>
       </c>
       <c r="F23">
         <v>39.583333000000003</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="6">
         <v>11700</v>
       </c>
       <c r="H23">
@@ -1541,33 +1541,56 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="4">
         <v>44077</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="9">
         <v>520000</v>
       </c>
       <c r="C24">
-        <v>0.02</v>
-      </c>
-      <c r="D24" s="10">
+        <v>6.1224489789999996</v>
+      </c>
+      <c r="D24" s="6">
         <v>30</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <v>400000</v>
       </c>
       <c r="F24">
         <v>19.40298507</v>
       </c>
-      <c r="G24">
-        <v>13400</v>
+      <c r="G24" s="6">
+        <v>10700</v>
       </c>
       <c r="H24">
-        <v>14.5299145</v>
+        <v>-8.5470000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="4">
+        <v>44105</v>
+      </c>
+      <c r="B25" s="9">
+        <v>560000</v>
+      </c>
+      <c r="C25">
+        <v>7.6923076923</v>
+      </c>
+      <c r="D25" s="6">
+        <v>23.8</v>
+      </c>
+      <c r="E25" s="6">
+        <v>455000</v>
+      </c>
+      <c r="F25">
+        <v>13.75</v>
+      </c>
+      <c r="G25" s="6">
+        <v>12900</v>
+      </c>
+      <c r="H25" s="8">
+        <v>20.560746999999999</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:D1619">

--- a/variaciones.xlsx
+++ b/variaciones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\25 APP GRUPO INTERAVAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\analista04\Documents\R\grupointeraval.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,14 +49,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="mm\-yyyy"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="mm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +188,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -532,24 +540,28 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -872,27 +884,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="11.42578125" style="9"/>
+    <col min="2" max="2" width="11.42578125" style="8"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="2"/>
     <col min="5" max="5" width="11.42578125" style="6"/>
     <col min="7" max="7" width="11.42578125" style="6"/>
+    <col min="10" max="14" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -918,7 +931,7 @@
       <c r="A2" s="3">
         <v>43405</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>507.32</v>
       </c>
       <c r="C2">
@@ -944,7 +957,7 @@
       <c r="A3" s="3">
         <v>43435</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>822.09</v>
       </c>
       <c r="C3">
@@ -973,7 +986,7 @@
       <c r="A4" s="4">
         <v>43466</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>2367.5500000000002</v>
       </c>
       <c r="C4">
@@ -1002,7 +1015,7 @@
       <c r="A5" s="4">
         <v>43497</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>5699.8</v>
       </c>
       <c r="C5">
@@ -1031,7 +1044,7 @@
       <c r="A6" s="4">
         <v>43525</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>9837.64</v>
       </c>
       <c r="C6">
@@ -1060,7 +1073,7 @@
       <c r="A7" s="4">
         <v>43556</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>8683.9599999999991</v>
       </c>
       <c r="C7">
@@ -1089,7 +1102,7 @@
       <c r="A8" s="4">
         <v>43586</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>15277.27</v>
       </c>
       <c r="C8">
@@ -1118,7 +1131,7 @@
       <c r="A9" s="4">
         <v>43617</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>13571.37</v>
       </c>
       <c r="C9">
@@ -1147,7 +1160,7 @@
       <c r="A10" s="4">
         <v>43647</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>19516.099999999999</v>
       </c>
       <c r="C10">
@@ -1176,7 +1189,7 @@
       <c r="A11" s="4">
         <v>43678</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>40439.29</v>
       </c>
       <c r="C11">
@@ -1205,7 +1218,7 @@
       <c r="A12" s="4">
         <v>43709</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>61085.03</v>
       </c>
       <c r="C12">
@@ -1234,7 +1247,7 @@
       <c r="A13" s="4">
         <v>43739</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>52777.46</v>
       </c>
       <c r="C13">
@@ -1263,7 +1276,7 @@
       <c r="A14" s="4">
         <v>43770</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>57077.23</v>
       </c>
       <c r="C14">
@@ -1292,7 +1305,7 @@
       <c r="A15" s="4">
         <v>43800</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>61917.54</v>
       </c>
       <c r="C15">
@@ -1321,7 +1334,7 @@
       <c r="A16" s="4">
         <v>43831</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>123483.57</v>
       </c>
       <c r="C16">
@@ -1350,7 +1363,7 @@
       <c r="A17" s="4">
         <v>43862</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>123888.89</v>
       </c>
       <c r="C17">
@@ -1379,7 +1392,7 @@
       <c r="A18" s="4">
         <v>43891</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>105807.64</v>
       </c>
       <c r="C18">
@@ -1408,7 +1421,7 @@
       <c r="A19" s="4">
         <v>43922</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>191984.67</v>
       </c>
       <c r="C19">
@@ -1437,7 +1450,7 @@
       <c r="A20" s="4">
         <v>43953</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>289324.75</v>
       </c>
       <c r="C20">
@@ -1466,7 +1479,7 @@
       <c r="A21" s="4">
         <v>43984</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>330000</v>
       </c>
       <c r="C21">
@@ -1478,7 +1491,7 @@
       <c r="E21" s="6">
         <v>225000</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="10">
         <v>25</v>
       </c>
       <c r="G21" s="6">
@@ -1492,7 +1505,7 @@
       <c r="A22" s="4">
         <v>44015</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>320000</v>
       </c>
       <c r="C22">
@@ -1518,7 +1531,7 @@
       <c r="A23" s="4">
         <v>44046</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>490000</v>
       </c>
       <c r="C23">
@@ -1536,7 +1549,7 @@
       <c r="G23" s="6">
         <v>11700</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="11">
         <v>21.875</v>
       </c>
     </row>
@@ -1544,7 +1557,7 @@
       <c r="A24" s="4">
         <v>44077</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>520000</v>
       </c>
       <c r="C24">
@@ -1562,7 +1575,7 @@
       <c r="G24" s="6">
         <v>10700</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="11">
         <v>-8.5470000000000006</v>
       </c>
     </row>
@@ -1570,7 +1583,7 @@
       <c r="A25" s="4">
         <v>44105</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>560000</v>
       </c>
       <c r="C25">
@@ -1582,14 +1595,40 @@
       <c r="E25" s="6">
         <v>455000</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="11">
         <v>13.75</v>
       </c>
       <c r="G25" s="6">
         <v>12900</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="11">
         <v>20.560746999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>44136</v>
+      </c>
+      <c r="B26" s="14">
+        <v>701076.64100000006</v>
+      </c>
+      <c r="C26">
+        <v>25.192257142799999</v>
+      </c>
+      <c r="D26" s="6">
+        <v>65.7</v>
+      </c>
+      <c r="E26" s="13">
+        <v>768669.61</v>
+      </c>
+      <c r="F26">
+        <v>68.938374999999994</v>
+      </c>
+      <c r="G26" s="6">
+        <v>17000</v>
+      </c>
+      <c r="H26" s="11">
+        <v>31.782945000000002</v>
       </c>
     </row>
   </sheetData>

--- a/variaciones.xlsx
+++ b/variaciones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\analista04\Documents\R\grupointeraval.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\25 APP GRUPO INTERAVAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,13 +49,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="mm\-yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="mm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="173" formatCode="0.000000"/>
+    <numFmt numFmtId="174" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -540,28 +541,29 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -886,26 +888,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="11.42578125" style="8"/>
+    <col min="2" max="2" width="11.42578125" style="9"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="2"/>
     <col min="5" max="5" width="11.42578125" style="6"/>
     <col min="7" max="7" width="11.42578125" style="6"/>
-    <col min="10" max="14" width="11.42578125" style="12"/>
+    <col min="10" max="14" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -931,7 +933,7 @@
       <c r="A2" s="3">
         <v>43405</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>507.32</v>
       </c>
       <c r="C2">
@@ -957,7 +959,7 @@
       <c r="A3" s="3">
         <v>43435</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>822.09</v>
       </c>
       <c r="C3">
@@ -986,7 +988,7 @@
       <c r="A4" s="4">
         <v>43466</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>2367.5500000000002</v>
       </c>
       <c r="C4">
@@ -1015,7 +1017,7 @@
       <c r="A5" s="4">
         <v>43497</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>5699.8</v>
       </c>
       <c r="C5">
@@ -1044,7 +1046,7 @@
       <c r="A6" s="4">
         <v>43525</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>9837.64</v>
       </c>
       <c r="C6">
@@ -1073,7 +1075,7 @@
       <c r="A7" s="4">
         <v>43556</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>8683.9599999999991</v>
       </c>
       <c r="C7">
@@ -1102,7 +1104,7 @@
       <c r="A8" s="4">
         <v>43586</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>15277.27</v>
       </c>
       <c r="C8">
@@ -1131,7 +1133,7 @@
       <c r="A9" s="4">
         <v>43617</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>13571.37</v>
       </c>
       <c r="C9">
@@ -1160,7 +1162,7 @@
       <c r="A10" s="4">
         <v>43647</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>19516.099999999999</v>
       </c>
       <c r="C10">
@@ -1189,7 +1191,7 @@
       <c r="A11" s="4">
         <v>43678</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>40439.29</v>
       </c>
       <c r="C11">
@@ -1218,7 +1220,7 @@
       <c r="A12" s="4">
         <v>43709</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>61085.03</v>
       </c>
       <c r="C12">
@@ -1247,7 +1249,7 @@
       <c r="A13" s="4">
         <v>43739</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>52777.46</v>
       </c>
       <c r="C13">
@@ -1276,7 +1278,7 @@
       <c r="A14" s="4">
         <v>43770</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>57077.23</v>
       </c>
       <c r="C14">
@@ -1305,7 +1307,7 @@
       <c r="A15" s="4">
         <v>43800</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>61917.54</v>
       </c>
       <c r="C15">
@@ -1334,7 +1336,7 @@
       <c r="A16" s="4">
         <v>43831</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="10">
         <v>123483.57</v>
       </c>
       <c r="C16">
@@ -1363,7 +1365,7 @@
       <c r="A17" s="4">
         <v>43862</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>123888.89</v>
       </c>
       <c r="C17">
@@ -1392,7 +1394,7 @@
       <c r="A18" s="4">
         <v>43891</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="9">
         <v>105807.64</v>
       </c>
       <c r="C18">
@@ -1421,7 +1423,7 @@
       <c r="A19" s="4">
         <v>43922</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>191984.67</v>
       </c>
       <c r="C19">
@@ -1450,7 +1452,7 @@
       <c r="A20" s="4">
         <v>43953</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="10">
         <v>289324.75</v>
       </c>
       <c r="C20">
@@ -1479,7 +1481,7 @@
       <c r="A21" s="4">
         <v>43984</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <v>330000</v>
       </c>
       <c r="C21">
@@ -1491,7 +1493,7 @@
       <c r="E21" s="6">
         <v>225000</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="11">
         <v>25</v>
       </c>
       <c r="G21" s="6">
@@ -1505,7 +1507,7 @@
       <c r="A22" s="4">
         <v>44015</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>320000</v>
       </c>
       <c r="C22">
@@ -1531,7 +1533,7 @@
       <c r="A23" s="4">
         <v>44046</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="9">
         <v>490000</v>
       </c>
       <c r="C23">
@@ -1549,7 +1551,7 @@
       <c r="G23" s="6">
         <v>11700</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23">
         <v>21.875</v>
       </c>
     </row>
@@ -1557,7 +1559,7 @@
       <c r="A24" s="4">
         <v>44077</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="9">
         <v>520000</v>
       </c>
       <c r="C24">
@@ -1575,7 +1577,7 @@
       <c r="G24" s="6">
         <v>10700</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24">
         <v>-8.5470000000000006</v>
       </c>
     </row>
@@ -1583,7 +1585,7 @@
       <c r="A25" s="4">
         <v>44105</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="9">
         <v>560000</v>
       </c>
       <c r="C25">
@@ -1595,13 +1597,13 @@
       <c r="E25" s="6">
         <v>455000</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="12">
         <v>13.75</v>
       </c>
       <c r="G25" s="6">
         <v>12900</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="8">
         <v>20.560746999999999</v>
       </c>
     </row>
@@ -1609,7 +1611,7 @@
       <c r="A26" s="4">
         <v>44136</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="15">
         <v>701076.64100000006</v>
       </c>
       <c r="C26">
@@ -1618,7 +1620,7 @@
       <c r="D26" s="6">
         <v>65.7</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="14">
         <v>768669.61</v>
       </c>
       <c r="F26">
@@ -1627,8 +1629,8 @@
       <c r="G26" s="6">
         <v>17000</v>
       </c>
-      <c r="H26" s="11">
-        <v>31.782945000000002</v>
+      <c r="H26">
+        <v>31.782</v>
       </c>
     </row>
   </sheetData>

--- a/variaciones.xlsx
+++ b/variaciones.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\25 APP GRUPO INTERAVAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\analista04\Documents\R\grupointeraval.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="ibc" sheetId="1" r:id="rId1"/>
+    <sheet name="VARIACIONES" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -21,42 +21,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>fecha</t>
+    <t>FECHA</t>
   </si>
   <si>
-    <t>ibc</t>
+    <t>IBC</t>
   </si>
   <si>
-    <t>usd</t>
+    <t>VARIBC</t>
   </si>
   <si>
-    <t>btc</t>
+    <t>INFLACION</t>
   </si>
   <si>
-    <t>varbtc</t>
+    <t>USD</t>
   </si>
   <si>
-    <t>inflacion</t>
+    <t>VARUSD</t>
   </si>
   <si>
-    <t>varusd</t>
+    <t>BTC</t>
   </si>
   <si>
-    <t>varibc</t>
+    <t>VARBTC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="mm\-yyyy"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="0.000000"/>
-    <numFmt numFmtId="174" formatCode="0.0000000"/>
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="mm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -196,12 +197,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +379,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -498,7 +504,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -541,31 +547,50 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -599,6 +624,7 @@
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Millares" xfId="42" builtinId="3"/>
+    <cellStyle name="Millares 2" xfId="43"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -886,751 +912,780 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2"/>
-    <col min="5" max="5" width="11.42578125" style="6"/>
-    <col min="7" max="7" width="11.42578125" style="6"/>
-    <col min="10" max="14" width="11.42578125" style="13"/>
+    <col min="4" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="10" max="14" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>43405</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>507.32</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="9">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="10">
         <v>239.81</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="9">
         <v>0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="10">
         <v>6400</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="7">
         <v>43435</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>822.09</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <f>((B3-B2)/B2)*100</f>
         <v>62.045651659701974</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="9">
         <v>141.75</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="10">
         <v>527.15</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="9">
         <f>((E3-E2)/E2)*100</f>
         <v>119.81985738709811</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="10">
         <v>3800</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="9">
         <f>((G3-G2)/G2)*100</f>
         <v>-40.625</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="11">
         <v>43466</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>2367.5500000000002</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <f>((B4-B3)/B3)*100</f>
         <v>187.99158243014756</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <v>196.6</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="10">
         <v>910.68</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="9">
         <f t="shared" ref="F4:F20" si="0">((E4-E3)/E3)*100</f>
         <v>72.755382718391346</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="10">
         <v>4050</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="9">
         <f t="shared" ref="H4:H20" si="1">((G4-G3)/G3)*100</f>
         <v>6.5789473684210522</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="11">
         <v>43497</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>5699.8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <f>((B5-B4)/B4)*100</f>
         <v>140.74676353192118</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>114.4</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="10">
         <v>2808.33</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>208.37725655554092</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="10">
         <v>3650</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="9">
         <f t="shared" si="1"/>
         <v>-9.8765432098765427</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="11">
         <v>43525</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>9837.64</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <f>((B6-B5)/B5)*100</f>
         <v>72.596231446717411</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>34.799999999999997</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="10">
         <v>3673.74</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>30.815822926792784</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="10">
         <v>3910</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="9">
         <f t="shared" si="1"/>
         <v>7.1232876712328768</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="11">
         <v>43556</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>8683.9599999999991</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <f t="shared" ref="C7:C17" si="2">((B7-B6)/B6)*100</f>
         <v>-11.727202865727964</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>33.799999999999997</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="10">
         <v>3799.14</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>3.413415211746071</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="10">
         <v>5235</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="9">
         <f t="shared" si="1"/>
         <v>33.887468030690535</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="11">
         <v>43586</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>15277.27</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <f t="shared" si="2"/>
         <v>75.925153962017362</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="9">
         <v>39.5</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="10">
         <v>5886.15</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>54.93374816405818</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="10">
         <v>5850</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="9">
         <f t="shared" si="1"/>
         <v>11.74785100286533</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="11">
         <v>43617</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>13571.37</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <f t="shared" si="2"/>
         <v>-11.166262035036361</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="9">
         <v>22.1</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="10">
         <v>6348.24</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>7.8504625264391867</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="10">
         <v>7600</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="9">
         <f t="shared" si="1"/>
         <v>29.914529914529915</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="11">
         <v>43647</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>19516.099999999999</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <f t="shared" si="2"/>
         <v>43.80346273073387</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="9">
         <v>19.399999999999999</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="10">
         <v>7794.91</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>22.788520912882941</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="10">
         <v>12950</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="9">
         <f t="shared" si="1"/>
         <v>70.39473684210526</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="11">
         <v>43678</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>40439.29</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <f t="shared" si="2"/>
         <v>107.20989337008933</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <v>34.6</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="10">
         <v>13807.52</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>77.135079173460639</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="10">
         <v>11600</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="9">
         <f t="shared" si="1"/>
         <v>-10.424710424710424</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="11">
         <v>43709</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>61085.03</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
         <f t="shared" si="2"/>
         <v>51.053665877912294</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <v>52.2</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="10">
         <v>22036.01</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>59.594264574666546</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="10">
         <v>10390</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="9">
         <f t="shared" si="1"/>
         <v>-10.431034482758621</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="11">
         <v>43739</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>52777.46</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
         <f t="shared" si="2"/>
         <v>-13.600009691408843</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="9">
         <v>20.7</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="10">
         <v>20015.740000000002</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>-9.1680390415506121</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="10">
         <v>8200</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="9">
         <f t="shared" si="1"/>
         <v>-21.07795957651588</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="11">
         <v>43770</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>57077.23</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="9">
         <f t="shared" si="2"/>
         <v>8.1469816849844694</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="9">
         <v>35.799999999999997</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="10">
         <v>29032.22</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="9">
         <f t="shared" si="0"/>
         <v>45.046948051883163</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="10">
         <v>9240</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="9">
         <f t="shared" si="1"/>
         <v>12.682926829268293</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="11">
         <v>43800</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>61917.54</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="9">
         <f t="shared" si="2"/>
         <v>8.4802818917456175</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="9">
         <v>33.1</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="10">
         <v>46838.19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>61.331754857189701</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="10">
         <v>7270</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="9">
         <f t="shared" si="1"/>
         <v>-21.320346320346321</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="11">
         <v>43831</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="12">
         <v>123483.57</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="9">
         <f t="shared" si="2"/>
         <v>99.432293337235294</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="9">
         <v>65</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="10">
         <v>80721.919999999998</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="9">
         <f t="shared" si="0"/>
         <v>72.342099470538884</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="10">
         <v>8270</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="9">
         <f t="shared" si="1"/>
         <v>13.75515818431912</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="11">
         <v>43862</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>123888.89</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="9">
         <f t="shared" si="2"/>
         <v>0.32823799959783506</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="9">
         <v>22</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="10">
         <v>75272.11</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="9">
         <f t="shared" si="0"/>
         <v>-6.7513384220791544</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="10">
         <v>9780</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="9">
         <f t="shared" si="1"/>
         <v>18.258766626360341</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="11">
         <v>43891</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>105807.64</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="9">
         <f>((B18-B17)/B17)*100</f>
         <v>-14.594730810809589</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="9">
         <v>21.2</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="10">
         <v>80023.179999999993</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
         <v>6.3118597313134863</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="10">
         <v>4500</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="9">
         <f t="shared" si="1"/>
         <v>-53.987730061349694</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="11">
         <v>43922</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>191984.67</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="9">
         <f>((B19-B18)/B18)*100</f>
         <v>81.446887956295043</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="9">
         <v>32</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="10">
         <v>117395.02</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="9">
         <f t="shared" si="0"/>
         <v>46.701268307507917</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="10">
         <v>7250</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="9">
         <f t="shared" si="1"/>
         <v>61.111111111111114</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="11">
         <v>43953</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="12">
         <v>289324.75</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="9">
         <f>((B20-B19)/B19)*100</f>
         <v>50.70200657167053</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="13">
         <v>80</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="10">
         <v>180000</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="9">
         <f t="shared" si="0"/>
         <v>53.328480202993276</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="10">
         <v>9000</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="9">
         <f t="shared" si="1"/>
         <v>24.137931034482758</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="11">
         <v>43984</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>330000</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="9">
         <v>14.05868319</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="14">
         <v>25.1</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="10">
         <v>225000</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="15">
         <v>25</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="10">
         <v>9300</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="9">
         <v>3.3333333000000001</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="11">
         <v>44015</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>320000</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="9">
         <v>-3.0303030303030001</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="10">
         <v>55.05</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="10">
         <v>240000</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="9">
         <v>6.6666667000000004</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="10">
         <v>9600</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="9">
         <v>3.2258064000000002</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="11">
         <v>44046</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>490000</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="9">
         <v>53.125</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="10">
         <v>25.04</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="10">
         <v>335000</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="9">
         <v>39.583333000000003</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="10">
         <v>11700</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="9">
         <v>21.875</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="11">
         <v>44077</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>520000</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="9">
         <v>6.1224489789999996</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="10">
         <v>30</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="10">
         <v>400000</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="9">
         <v>19.40298507</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="10">
         <v>10700</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="9">
         <v>-8.5470000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="11">
         <v>44105</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>560000</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="9">
         <v>7.6923076923</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="10">
         <v>23.8</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="10">
         <v>455000</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="16">
         <v>13.75</v>
       </c>
-      <c r="G25" s="6">
-        <v>12900</v>
-      </c>
-      <c r="H25" s="8">
+      <c r="G25" s="10"/>
+      <c r="H25" s="17">
         <v>20.560746999999999</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="11">
         <v>44136</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="6">
         <v>701076.64100000006</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="9">
         <v>25.192257142799999</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="10">
         <v>65.7</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="9">
         <v>768669.61</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="9">
         <v>68.938374999999994</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="10">
         <v>17000</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="9">
         <v>31.782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>44166</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1284140.8421052629</v>
+      </c>
+      <c r="C27" s="19">
+        <v>83.166970160000005</v>
+      </c>
+      <c r="D27" s="10">
+        <v>21.2</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1093027.58</v>
+      </c>
+      <c r="F27" s="9">
+        <v>42.197319</v>
+      </c>
+      <c r="G27" s="10">
+        <v>24000</v>
+      </c>
+      <c r="H27" s="10">
+        <v>41.176000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/variaciones.xlsx
+++ b/variaciones.xlsx
@@ -21,28 +21,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>FECHA</t>
+    <t>fecha</t>
   </si>
   <si>
-    <t>IBC</t>
+    <t>ibc</t>
   </si>
   <si>
-    <t>VARIBC</t>
+    <t>varibc</t>
   </si>
   <si>
-    <t>INFLACION</t>
+    <t>inflacion</t>
   </si>
   <si>
-    <t>USD</t>
+    <t>usd</t>
   </si>
   <si>
-    <t>VARUSD</t>
+    <t>varusd</t>
   </si>
   <si>
-    <t>BTC</t>
+    <t>btc</t>
   </si>
   <si>
-    <t>VARBTC</t>
+    <t>varbtc</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -559,7 +559,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -575,7 +574,6 @@
     <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -918,7 +916,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,756 +933,756 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>43405</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>507.32</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>0</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>239.81</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>0</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>6400</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>43435</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>822.09</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <f>((B3-B2)/B2)*100</f>
         <v>62.045651659701974</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>141.75</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>527.15</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f>((E3-E2)/E2)*100</f>
         <v>119.81985738709811</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>3800</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <f>((G3-G2)/G2)*100</f>
         <v>-40.625</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>43466</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>2367.5500000000002</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <f>((B4-B3)/B3)*100</f>
         <v>187.99158243014756</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>196.6</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>910.68</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f t="shared" ref="F4:F20" si="0">((E4-E3)/E3)*100</f>
         <v>72.755382718391346</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>4050</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <f t="shared" ref="H4:H20" si="1">((G4-G3)/G3)*100</f>
         <v>6.5789473684210522</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>43497</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>5699.8</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f>((B5-B4)/B4)*100</f>
         <v>140.74676353192118</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>114.4</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>2808.33</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>208.37725655554092</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>3650</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <f t="shared" si="1"/>
         <v>-9.8765432098765427</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>43525</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>9837.64</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <f>((B6-B5)/B5)*100</f>
         <v>72.596231446717411</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>34.799999999999997</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>3673.74</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>30.815822926792784</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>3910</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <f t="shared" si="1"/>
         <v>7.1232876712328768</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>43556</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>8683.9599999999991</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <f t="shared" ref="C7:C17" si="2">((B7-B6)/B6)*100</f>
         <v>-11.727202865727964</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>33.799999999999997</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>3799.14</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>3.413415211746071</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>5235</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <f t="shared" si="1"/>
         <v>33.887468030690535</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>43586</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>15277.27</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <f t="shared" si="2"/>
         <v>75.925153962017362</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>39.5</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>5886.15</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>54.93374816405818</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>5850</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <f t="shared" si="1"/>
         <v>11.74785100286533</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>43617</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>13571.37</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f t="shared" si="2"/>
         <v>-11.166262035036361</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>22.1</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>6348.24</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>7.8504625264391867</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>7600</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <f t="shared" si="1"/>
         <v>29.914529914529915</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>43647</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>19516.099999999999</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <f t="shared" si="2"/>
         <v>43.80346273073387</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>19.399999999999999</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>7794.91</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>22.788520912882941</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>12950</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <f t="shared" si="1"/>
         <v>70.39473684210526</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>43678</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>40439.29</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <f t="shared" si="2"/>
         <v>107.20989337008933</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>34.6</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>13807.52</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>77.135079173460639</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>11600</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <f t="shared" si="1"/>
         <v>-10.424710424710424</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>43709</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>61085.03</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <f t="shared" si="2"/>
         <v>51.053665877912294</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>52.2</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>22036.01</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>59.594264574666546</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>10390</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <f t="shared" si="1"/>
         <v>-10.431034482758621</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>43739</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>52777.46</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <f t="shared" si="2"/>
         <v>-13.600009691408843</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>20.7</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>20015.740000000002</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>-9.1680390415506121</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>8200</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <f t="shared" si="1"/>
         <v>-21.07795957651588</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>43770</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>57077.23</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <f t="shared" si="2"/>
         <v>8.1469816849844694</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>35.799999999999997</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>29032.22</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <f t="shared" si="0"/>
         <v>45.046948051883163</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>9240</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <f t="shared" si="1"/>
         <v>12.682926829268293</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>43800</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>61917.54</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <f t="shared" si="2"/>
         <v>8.4802818917456175</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>33.1</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>46838.19</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>61.331754857189701</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>7270</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <f t="shared" si="1"/>
         <v>-21.320346320346321</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>43831</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>123483.57</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <f t="shared" si="2"/>
         <v>99.432293337235294</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>65</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>80721.919999999998</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f t="shared" si="0"/>
         <v>72.342099470538884</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>8270</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <f t="shared" si="1"/>
         <v>13.75515818431912</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>43862</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>123888.89</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <f t="shared" si="2"/>
         <v>0.32823799959783506</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>22</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>75272.11</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <f t="shared" si="0"/>
         <v>-6.7513384220791544</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>9780</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <f t="shared" si="1"/>
         <v>18.258766626360341</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>43891</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>105807.64</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <f>((B18-B17)/B17)*100</f>
         <v>-14.594730810809589</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>21.2</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>80023.179999999993</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <f t="shared" si="0"/>
         <v>6.3118597313134863</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>4500</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <f t="shared" si="1"/>
         <v>-53.987730061349694</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>43922</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>191984.67</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <f>((B19-B18)/B18)*100</f>
         <v>81.446887956295043</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>32</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>117395.02</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <f t="shared" si="0"/>
         <v>46.701268307507917</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>7250</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <f t="shared" si="1"/>
         <v>61.111111111111114</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>43953</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>289324.75</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <f>((B20-B19)/B19)*100</f>
         <v>50.70200657167053</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>80</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>180000</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <f t="shared" si="0"/>
         <v>53.328480202993276</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>9000</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <f t="shared" si="1"/>
         <v>24.137931034482758</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>43984</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>330000</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>14.05868319</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>25.1</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>225000</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>25</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>9300</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>3.3333333000000001</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>44015</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>320000</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>-3.0303030303030001</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>55.05</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>240000</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>6.6666667000000004</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>9600</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>3.2258064000000002</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>44046</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>490000</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>53.125</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>25.04</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>335000</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>39.583333000000003</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>11700</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>21.875</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>44077</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>520000</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>6.1224489789999996</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>30</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>400000</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>19.40298507</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>10700</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>-8.5470000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>44105</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>560000</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>7.6923076923</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>23.8</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>455000</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <v>13.75</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="17">
+      <c r="G25" s="9"/>
+      <c r="H25" s="16">
         <v>20.560746999999999</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>44136</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="9">
         <v>701076.64100000006</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>25.192257142799999</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>65.7</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>768669.61</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>68.938374999999994</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <v>17000</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>31.782</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="10">
         <v>44166</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="9">
         <v>1284140.8421052629</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="17">
         <v>83.166970160000005</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>21.2</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>1093027.58</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>42.197319</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <v>24000</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <v>41.176000000000002</v>
       </c>
     </row>

--- a/variaciones.xlsx
+++ b/variaciones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\analista04\Documents\R\grupointeraval.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\25 APP GRUPO INTERAVAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,14 +50,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="mm\-yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="mm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="171" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -547,34 +547,34 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -587,6 +587,7 @@
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -913,10 +914,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +927,7 @@
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="10" max="14" width="11.42578125" style="5"/>
@@ -1629,9 +1630,11 @@
       <c r="F25" s="15">
         <v>13.75</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="9">
+        <v>11888</v>
+      </c>
       <c r="H25" s="16">
-        <v>20.560746999999999</v>
+        <v>11.1028</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1684,6 +1687,58 @@
       </c>
       <c r="H27" s="9">
         <v>41.176000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>44197</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1780034.33</v>
+      </c>
+      <c r="C28">
+        <v>38.616750000000003</v>
+      </c>
+      <c r="D28" s="3">
+        <v>55.2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1598542.25</v>
+      </c>
+      <c r="F28" s="22">
+        <v>46.249031520300001</v>
+      </c>
+      <c r="G28" s="3">
+        <v>34817.46</v>
+      </c>
+      <c r="H28" s="8">
+        <v>45.072699999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>44228</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1947054.27</v>
+      </c>
+      <c r="C29" s="8">
+        <v>9.3829616999999992</v>
+      </c>
+      <c r="D29" s="3">
+        <v>50.9</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1813522</v>
+      </c>
+      <c r="F29" s="8">
+        <v>13.448487</v>
+      </c>
+      <c r="G29" s="3">
+        <v>46296</v>
+      </c>
+      <c r="H29" s="8">
+        <v>32.964889999999997</v>
       </c>
     </row>
   </sheetData>

--- a/variaciones.xlsx
+++ b/variaciones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\25 APP GRUPO INTERAVAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\analista04\Documents\R\grupointeraval.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,14 +50,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="mm\-yyyy"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000000"/>
-    <numFmt numFmtId="171" formatCode="0.00000000"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="mm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -547,34 +547,34 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -587,7 +587,7 @@
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -914,10 +914,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,6 +1741,32 @@
         <v>32.964889999999997</v>
       </c>
     </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>44257</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2618000</v>
+      </c>
+      <c r="C30">
+        <v>34.459527999999999</v>
+      </c>
+      <c r="D30" s="3">
+        <v>21.2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1895199</v>
+      </c>
+      <c r="F30">
+        <v>4.5037776999999997</v>
+      </c>
+      <c r="G30" s="3">
+        <v>54863.82</v>
+      </c>
+      <c r="H30">
+        <v>18.506599999999999</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/variaciones.xlsx
+++ b/variaciones.xlsx
@@ -550,7 +550,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -588,6 +588,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -914,10 +915,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,6 +1768,58 @@
         <v>18.506599999999999</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>44287</v>
+      </c>
+      <c r="B31" s="4">
+        <v>3479164.444444444</v>
+      </c>
+      <c r="C31">
+        <v>32.893979999999999</v>
+      </c>
+      <c r="D31" s="3">
+        <v>33.4</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2477023.12</v>
+      </c>
+      <c r="F31" s="23">
+        <v>30.699895894000001</v>
+      </c>
+      <c r="G31" s="3">
+        <v>57070.05</v>
+      </c>
+      <c r="H31" s="2">
+        <v>4.0212839000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>44317</v>
+      </c>
+      <c r="B32" s="4">
+        <v>5385844.9999999991</v>
+      </c>
+      <c r="C32">
+        <v>54.802819999999997</v>
+      </c>
+      <c r="D32" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3028716.36</v>
+      </c>
+      <c r="F32">
+        <v>22.272428999999999</v>
+      </c>
+      <c r="G32" s="3">
+        <v>46435.11</v>
+      </c>
+      <c r="H32">
+        <v>-18.634799999999998</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>
